--- a/medicine/Sexualité et sexologie/Glossaire_de_la_sexualité/Glossaire_de_la_sexualité.xlsx
+++ b/medicine/Sexualité et sexologie/Glossaire_de_la_sexualité/Glossaire_de_la_sexualité.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_sexualit%C3%A9</t>
+          <t>Glossaire_de_la_sexualité</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ceci est une liste thématique non exhaustive de termes et concepts relatifs à la sexualité humaine, à l'industrie du sexe, à la pornographie et à la sexologie.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Glossaire_de_la_sexualit%C3%A9</t>
+          <t>Glossaire_de_la_sexualité</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,28 +525,101 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orientation sexuelle
-Asexualité : Orientation sexuelle d'une personne ne montrant pas de désirs sexuels.
-Bisexualité : Orientation sexuelle ou inclination indifférente pour les hommes ou les femmes[2].
-Hétérosexualité : Attirance physique, ou maintien de relations amoureuses, sentimentales et sexuelles envers des personnes du sexe ou du genre opposé[3].
-Homosexualité : Attirance physique, ou maintien de relations amoureuses, sentimentales et sexuelles envers des personnes du même genre ou du même sexe[4].
-Monosexualité : Attirance physique, ou maintien de relations amoureuses, sentimentales et sexuelles envers des personnes d'un seul genre[5].
+          <t>Orientation sexuelle</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Asexualité : Orientation sexuelle d'une personne ne montrant pas de désirs sexuels.
+Bisexualité : Orientation sexuelle ou inclination indifférente pour les hommes ou les femmes.
+Hétérosexualité : Attirance physique, ou maintien de relations amoureuses, sentimentales et sexuelles envers des personnes du sexe ou du genre opposé.
+Homosexualité : Attirance physique, ou maintien de relations amoureuses, sentimentales et sexuelles envers des personnes du même genre ou du même sexe.
+Monosexualité : Attirance physique, ou maintien de relations amoureuses, sentimentales et sexuelles envers des personnes d'un seul genre.
 Omnisexualité : Attirance sentimentale ou sexuelle envers les individus de n'importe quel genre ou sexe, mais en prenant en considération le genre de celui-ci.
-Pansexualité : Orientation sexuelle indifférente au sexe ou au genre de l'individu[6].
+Pansexualité : Orientation sexuelle indifférente au sexe ou au genre de l'individu.
 Polysexualité : Attirance pour de multiples genres (y compris pour les personnes non-binaires). S'oppose à la monosexualité.
 Pygmalionisme : Attirance sexuelle pour des objets.
-Queer : Ensemble des minorités sexuelles et de genres : personnes ayant une sexualité ou une identité de genre différentes de l'hétérosexualité ou la cisidentité.
-Formes de sexualité
-Barebacking : Revendication de pratiques sexuelles non protégées[7].
+Queer : Ensemble des minorités sexuelles et de genres : personnes ayant une sexualité ou une identité de genre différentes de l'hétérosexualité ou la cisidentité.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Orientation sexuelle et formes de sexualité</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Formes de sexualité</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Barebacking : Revendication de pratiques sexuelles non protégées.
 Côte-à-côtisme : Pratique proche de la sexualité de groupe, de l'échangisme, de l'exhibitionnisme et du voyeurisme, dans laquelle différents couples ont des rapports sexuels les uns à côté des autres, sans toutefois se mélanger.
-Cybersexe : Ensemble des activités liées à la sexualité sur Internet[8].
-Échangisme : Pratique sexuelle adopté par les libertins qui consiste pour deux couples à échanger temporairement son partenaire, pendant les différentes phases du rapport[9].
-Mélangisme : Forme particulière de sexualité de groupe proche de l'échangisme dans laquelle les pratiquants, le plus souvent en couples mais intégrant parfois des célibataires, ont des relations sexuelles multiples au cours d'une même soirée sans pénétration hors couple[10].
-Sexe libre : Sexualité pratiquée sans obéir à certaines contraintes légales, sociales, morales[11].
-Sexualité de groupe : Ensemble de pratiques sexuelles impliquant plus de deux personnes[12]. Pour trois personnes, on parle de triolisme. La sexualité de groupe peut se pratiquer sous forme d'échangisme.
-Sexualité taoïste : Forme de sexualité pratiquée par des adeptes du taoïsme, qui voient dans l'énergie sexuelle une expression du qi, l'énergie vitale. En effet, l'union de l'homme et de la femme symbolise celle du yin et du yang, les deux manifestations du qi[13].
-Paraphilies et pornographie fétichiste
-Préférences et fétichismes concernant des parties ou des caractéristiques du corps, tels que fétichisme des pieds, adoration du corps, acrotomophilie, alimentation, pilosité (pubienne) (cf. tricophilie ), taille des seins, de la vulve ou du pénis.
+Cybersexe : Ensemble des activités liées à la sexualité sur Internet.
+Échangisme : Pratique sexuelle adopté par les libertins qui consiste pour deux couples à échanger temporairement son partenaire, pendant les différentes phases du rapport.
+Mélangisme : Forme particulière de sexualité de groupe proche de l'échangisme dans laquelle les pratiquants, le plus souvent en couples mais intégrant parfois des célibataires, ont des relations sexuelles multiples au cours d'une même soirée sans pénétration hors couple.
+Sexe libre : Sexualité pratiquée sans obéir à certaines contraintes légales, sociales, morales.
+Sexualité de groupe : Ensemble de pratiques sexuelles impliquant plus de deux personnes. Pour trois personnes, on parle de triolisme. La sexualité de groupe peut se pratiquer sous forme d'échangisme.
+Sexualité taoïste : Forme de sexualité pratiquée par des adeptes du taoïsme, qui voient dans l'énergie sexuelle une expression du qi, l'énergie vitale. En effet, l'union de l'homme et de la femme symbolise celle du yin et du yang, les deux manifestations du qi.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Orientation sexuelle et formes de sexualité</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Paraphilies et pornographie fétichiste</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Préférences et fétichismes concernant des parties ou des caractéristiques du corps, tels que fétichisme des pieds, adoration du corps, acrotomophilie, alimentation, pilosité (pubienne) (cf. tricophilie ), taille des seins, de la vulve ou du pénis.
 Préférences et fétichismes concernant les vêtements tels que le fétichisme de la chaussure, le fétichisme du caoutchouc, le fétichisme du travesti, du cosplay, de la lingerie sexy, des vêtements en latex, en laque ou en cuir. On parle de « Clothed female, naked male » (en abrégé CFNM) si seul l'homme n'est pas vêtu, et dans le cas contraire de « Clothed man, naked female » (en abrégé CMNF).
 Préférences et fétichismes concernant les stimuli corporels individuels, l'excrétion ou les souillures, tels que le fétichisme des odeurs (es), la clystérophilie, la salirophilie, le fétichisme de la fumée, la traite ou la scatophilie.
 Préférences envers certains groupes ethniques et groupes de personnes (par exemple Asiatiques, Américains, Européens, Afro-Américains, personnes originaires de pays du Sud, Musulmans, Latinos, personnes handicapées, etc.)
@@ -544,35 +629,72 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Pratiques sexuelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On fait ici la différence entre pratiques sexuelles et positions sexuelles. Les premières renvoient à des pratiques générales, tandis que les deuxièmes constituent des postures précises. Elles seront présentées plus bas.
-Généralités
-Anulingus, anilingus, anilinctus : Pratique sexuelle consistant en la stimulation orale de l'anus ou du périnée.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On fait ici la différence entre pratiques sexuelles et positions sexuelles. Les premières renvoient à des pratiques générales, tandis que les deuxièmes constituent des postures précises. Elles seront présentées plus bas.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Pratiques sexuelles</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Généralités</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anulingus, anilingus, anilinctus : Pratique sexuelle consistant en la stimulation orale de l'anus ou du périnée.
 Autofellation : Stimulation de son propre pénis avec sa bouche dans un acte de masturbation.
 Baiser : Mouvement qui consiste à toucher une personne avec ses lèvres grâce aux muscles orbiculaires de la bouche.
 Branlette espagnole, cravate de notaire, manœuvre de Clavel : Pratique sexuelle de couple hétérosexuel consistant pour une femme à masturber le pénis de l'homme en le frottant entre ses seins. On parle de cravate de notaire lorsque c'est l'homme qui est actif.
@@ -581,13 +703,13 @@
 Chatouillement : Jeu érotique entre deux partenaires, supposé contribuer à la vie sexuelle.
 Chemsex : Pratique minoritaire mêlant le sexe entre hommes et la prise de drogues, et impliquant des conduites à risques.
 Coït interfémoral, coït intercrural : Pratique sexuelle au cours de laquelle la stimulation sexuelle masculine est obtenue en enserrant le pénis entre les cuisses de son ou de sa partenaire.
-Coït interrompu : Pratique sexuelle et moyen de contraception qui consiste à interrompre le rapport sexuel vaginal juste avant l'éjaculation[14].
+Coït interrompu : Pratique sexuelle et moyen de contraception qui consiste à interrompre le rapport sexuel vaginal juste avant l'éjaculation.
 Coït vaginal : Pratique classique des couples hétérosexuels consistant pour l'homme à introduire son pénis en érection dans le vagin de sa partenaire.
 Coitus reservatus, étreinte réservée, karezza : Pratique sexuelle au cours de laquelle, lors d'une pénétration, le partenaire pénétrant ne tente pas d'éjaculer à l'intérieur de la personne pénétrée, mais s'emploie au contraire à retarder autant que possible le moment de l'éjaculation, voire à l'éviter complètement.
 Contrôle de l'orgasme, edging : Technique sexuelle qui consiste à amener son ou sa partenaire au bord (« edge » en anglais) de l'orgasme et maintenir cet état d'excitation et de plaisir sexuels très élevés (phase préorgasmique) pendant une longue période avant de lui faire atteindre l'orgasme dont l'intensité et la durée se trouvent également amplifiées.
 Cravate de notaire : Cf. branlette espagnole
 Cum swapping, snowballing : Pratique sexuelle qui consiste à faire passer le sperme d'une bouche à l'autre, généralement pour embrasser son partenaire.
-Cunnilingus : Pratique sexuelle buccale qui consiste à stimuler les différentes parties des organes génitaux de la femme à l'aide de la langue, des lèvres ou du nez[15].
+Cunnilingus : Pratique sexuelle buccale qui consiste à stimuler les différentes parties des organes génitaux de la femme à l'aide de la langue, des lèvres ou du nez.
 Dogging, sexe en public : Forme d'exhibitionnisme impliquant des pratiques sexuelles dans des lieux publics.
 Double pénétration : Pratique sexuelle où deux personnes pénètrent simultanément une troisième à l'aide de leurs phallus.
 Edging : Cf. contrôle de l'orgasme
@@ -595,7 +717,7 @@
 Étreinte réservée : Cf. coïtus reservatus
 Exhibitionnisme : Comportement par lequel un individu expose les parties intimes de son corps à une ou plusieurs autres personnes dans une situation — par exemple un endroit public — où ces parties intimes ne sont normalement ou habituellement pas exposées.
 Felching : Pratique consistant à lécher le sperme depuis le vagin ou l'anus de son partenaire. (Cf. cum swapping, snowballing)
-Fellation : Forme de sexualité orale consistant à stimuler le pénis de son partenaire avec la bouche, les lèvres et la langue[16]. C'est un comportement sexuel pratiqué soit comme un préliminaire soit pour conduire la personne qui la reçoit jusqu'à l’orgasme.
+Fellation : Forme de sexualité orale consistant à stimuler le pénis de son partenaire avec la bouche, les lèvres et la langue. C'est un comportement sexuel pratiqué soit comme un préliminaire soit pour conduire la personne qui la reçoit jusqu'à l’orgasme.
 Frottage : Pratique consistant à obtenir le plaisir sexuel en se frottant contre son partenaire. (Cf. tribadisme)
 Gang bang : Forme de sexualité de groupe dans laquelle une personne fait face à de nombreuses autres : par exemple, plusieurs hommes éjaculant successivement dans le vagin d'une même femme. On parle de Reverse Gang bang lorsque c'est un homme qui fait face à plusieurs femmes.
 Gokkun : Pratique sexuelle de groupe, rencontrée dans les films pornographiques, dans laquelle un groupe d'hommes éjacule tour à tour sur une personne (un homme ou une femme) qui doit ensuite lécher (ou avaler dans le cas d'un récipient) le sperme.
@@ -604,7 +726,7 @@
 Irrumation : Type de fellation où le mouvement de va-et-vient du pénis est fait par le bénéficiaire de la fellation plutôt que par la personne qui la pratique.
 Jeu de rôle érotique : Jeu d'attitude sexuelle dans lequel deux ou plusieurs individus endossent un rôle dans le but de réaliser un fantasme.
 Karezza : Cf. coïtus reservatus
-Kunyaza : Pratique sexuelle trouvée dans la région des Grands Lacs de l'Afrique de l'Est qui est destiné à faciliter l'orgasme féminin pendant les rapports sexuels Il s'agit pour l'homme de stimuler les grandes lèvres de sa partenaire à l'aide de son pénis[17].
+Kunyaza : Pratique sexuelle trouvée dans la région des Grands Lacs de l'Afrique de l'Est qui est destiné à faciliter l'orgasme féminin pendant les rapports sexuels Il s'agit pour l'homme de stimuler les grandes lèvres de sa partenaire à l'aide de son pénis.
 Lactation érotique : Attirance ou excitation sexuelle d'un individu lorsqu'il est allaité.
 Magie sexuelle : Pratique magique de l'occultisme occidental contemporain, ou de certains mouvements spirituels modernes, qui voient dans la sexualité une pratique bénéfique.
 Making out : Expression américaine, utilisée pour désigner une embrassade, des baisers, du pelotage ou des caresses mais peut également se rapporter à tout type de caresses érotiques.
@@ -613,19 +735,19 @@
 Massage érotique : Techniques de massages employées à des fins érotiques.
 Masturbation : Pratique sexuelle, consistant à provoquer le plaisir sexuel par la stimulation des parties génitales ou d’autres zones érogènes, généralement à l’aide des mains.
 Masturbation collective : Pratique sexuelle dans laquelle un groupe (d'hommes, usuellement) se réunissent pour se masturber, eux-mêmes ou mutuellement.
-Masturbation mutuelle : Pratique sexuelle consistant, pour chaque partenaire, à masturber l'autre (ou, le cas échéant, les autres)[18].
+Masturbation mutuelle : Pratique sexuelle consistant, pour chaque partenaire, à masturber l'autre (ou, le cas échéant, les autres).
 Mots cochons : Forme de communication verbale employée comme excitant sexuel pendant les préliminaires ou le rapport sexuel proprement dit. Ils font partie des vocalisations copulatoires.
 Orgie : Réunion où l'on se livre à toutes sortes d'excès, notamment sexuels. (Cf. Sexualité de groupe)
 Partouze : Cf. sexualité de groupe
 Quickie : Rapport sexuel bref ou spontané.
 Rapport sexuel : Acte sexuel mettant en relation deux ou plusieurs personnes.
-Sexe anal : Introduction du pénis en érection dans l'anus du partenaire[19].
+Sexe anal : Introduction du pénis en érection dans l'anus du partenaire.
 Sexe en public : Rapport sexuel engagé dans un espace public ou visible depuis un espace public.
 Sexe oral : Ensemble des formes de sexualité dans lesquelles le sexe d'une personne est stimulé par la bouche, la langue ou les lèvres d'une autre ou d'elle-même. Il s'agit généralement de préliminaires au coït.
 Snowballing : Cf. cum swapping
 Sodomie : Cf. sexe anal
-Stealthing : Forme d'agression sexuelle qui consiste, pour un partenaire sexuel, à enlever son préservatif pendant l'acte sexuel, à l'insu de l'autre partenaire. Il s'agit d'un comportement sexuel à risque pouvant entrainer une grossesse non désirée ou la transmission d'IST, et générant également une importance détresse psychologique chez ses victimes[20].
-Stimulation des tétons : Comportement sexuel humain, parfois préliminaire d'une activité sexuelle. Cette pratique peut, être, effectuée avec — ou par — des individus de tout genre ou orientation sexuelle, mais elle est plus communément effectuée sur les femmes. La stimulation du sein et du téton des femmes possède souvent des aspects universellement proches d'activité sexuelle, tandis que chez les hommes, la stimulation des tétons se rapproche d'activités sexuelles avec des partenaires du même sexe[21].
+Stealthing : Forme d'agression sexuelle qui consiste, pour un partenaire sexuel, à enlever son préservatif pendant l'acte sexuel, à l'insu de l'autre partenaire. Il s'agit d'un comportement sexuel à risque pouvant entrainer une grossesse non désirée ou la transmission d'IST, et générant également une importance détresse psychologique chez ses victimes.
+Stimulation des tétons : Comportement sexuel humain, parfois préliminaire d'une activité sexuelle. Cette pratique peut, être, effectuée avec — ou par — des individus de tout genre ou orientation sexuelle, mais elle est plus communément effectuée sur les femmes. La stimulation du sein et du téton des femmes possède souvent des aspects universellement proches d'activité sexuelle, tandis que chez les hommes, la stimulation des tétons se rapproche d'activités sexuelles avec des partenaires du même sexe.
 Stimulation vaginale : Technique sexuelle dans laquelle une femme utilise ses muscles vaginaux pour stimuler le pénis de l'homme.
 Teabagging (en) : Pratique sexuelle impliquant au moins un homme, lequel place son scrotum dans la bouche de son partenaire.
 Téléphone rose : Plate-forme téléphonique offrant aux appelants la possibilité d'avoir des conversations à caractère érotique, éventuellement pour se masturber, souvent par le biais d'un serveur vocal interactif.
@@ -633,45 +755,79 @@
 Triolisme : Pratique particulière de la sexualité de groupe impliquant trois partenaires, généralement un couple auquel s'adjoint un troisième partenaire sexuel.
 Voyeurisme : Attirance ressentie à observer l'intimité ou la nudité d'une personne ou d'un groupe de personnes dans des conditions particulières, en cherchant à y éprouver une jouissance et/ou une excitation.
 |}
-Positions sexuelles
-BDSM</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Adjuvants pour la sexualité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Anaphrodisiaque : produit utilisé pour affaiblir la libido.
 Aphrodisiaque : produit utilisé pour augmenter la libido.
 Lubrifiant : produit utilisé pour réduire les frictions lors des rapports sexuels.
 Digue dentaire : carré de latex ou de polyuréthane mince et souple, totalement imperméable, utilisé comme préservatif pour se protéger des infections sexuellement transmissibles lors d'un rapport sexuel entre la bouche de l'un des partenaires et la vulve, l'anus ou le pénis d'un autre .
-Pompe à pénis : dispositif mécanique non invasif, ayant la forme d'un cylindre ouvert à une extrémité, destiné à y introduire la verge d'un homme et y faire partiellement le vide à l'aide d'une pompe. Cet instrument est utilisé dans le traitement des troubles de l'érection ou comme technique non chirurgicale d’agrandissement du pénis.
-Sex-toys
-Moyens de contraception
-Acétate de médroxyprogestérone
+Pompe à pénis : dispositif mécanique non invasif, ayant la forme d'un cylindre ouvert à une extrémité, destiné à y introduire la verge d'un homme et y faire partiellement le vide à l'aide d'une pompe. Cet instrument est utilisé dans le traitement des troubles de l'érection ou comme technique non chirurgicale d’agrandissement du pénis.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Adjuvants pour la sexualité</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Moyens de contraception</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Acétate de médroxyprogestérone
 Anneau vaginal
 Cape cervicale
 Diaphragme
@@ -687,39 +843,43 @@
 Seringue à anticorps (hommes)
 Spermicide
 Timbre contraceptif
-Vasectomie
-Instruments sexuels</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+Vasectomie</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Industrie du sexe</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Pornographie
-Acteur pornographique : personne se livrant à des actes sexuels non simulés dans le cadre d'un film pornographique.
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Pornographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Acteur pornographique : personne se livrant à des actes sexuels non simulés dans le cadre d'un film pornographique.
 Alt porn : abréviation pour "pornographie alternative", contre-culture qui relie la pornographie et les différents mouvements alternatifs comme le gothique, le punk et la cyberculture.
 Creampie : scènes montrant un écoulement de sperme depuis l'orifice d'une personne après un rapport non protégé.
 Ecchi : anime ou manga à connotations sexuelles.
@@ -747,15 +907,87 @@
 Slash : histoires pornographiques mettant en scène des personnages de fiction célèbres, généralement des personnages de séries ou de films. L'homosexualité y est courante.
 Upskirt : forme d'érotisme ou de pornographie particulièrement présente sur Internet, constituée de photographies ou de videos prises sous les jupes des femmes (le plus souvent en contre-plongée en position debout, ou de face en position assise), dans le but de montrer leurs sous-vêtements, voire leurs parties génitales et/ou leurs fesses.
 Yaoi : genre d'œuvres de fiction centré sur les relations sentimentales et/ou sexuelles entre personnages de genre masculin.
-Yuri : genre d’œuvres de fiction centré sur les relations intimes entre femmes, qu'elles soient émotionnelles, sentimentales ou encore sexuelles.
-La pornographie par support
-Art érotique
+Yuri : genre d’œuvres de fiction centré sur les relations intimes entre femmes, qu'elles soient émotionnelles, sentimentales ou encore sexuelles.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Industrie du sexe</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Pornographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>La pornographie par support</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Art érotique
 Jeu vidéo pour adulte
 Photographie érotique
 Pornographie sur Internet
-Revue pornographique
-Prostitution
-Abolitionnisme : courant de pensée prônant la fin de tout contrôle institutionnel sur la prostitution, sinon la disparition de la prostitution.
+Revue pornographique</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Industrie du sexe</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Prostitution</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Abolitionnisme : courant de pensée prônant la fin de tout contrôle institutionnel sur la prostitution, sinon la disparition de la prostitution.
 Assistant sexuel : personne prostituée dont l'activité consiste à raviver le plaisir sensuel, érotique ou sexuel chez les personnes en situation de handicap qui en font la demande. Sur le plan légal, cette activité peut être est assimilée à de la prostitution ou encouragée, selon les pays.
 Bordel / lupanar / maison close / maison de passe : établissement offrant les services de personnes prostituées.
 Cinéma pour adultes, salle de cinéma où des films pornographiques sont montrés à un public de spectateurs majeurs (l'âge requis dans la plupart des pays est de 18 ans minimum). Il s'agit habituellement de diffusions en continu (les gens peuvent entrer et sortir quand ils veulent). Les affiches des films à l'entrée des salles ne présentent normalement pas de nudité.
@@ -791,75 +1023,268 @@
 Striptease : spectacle érotique généralement dansé, mettant en scène une personne (souvent une femme) qui retire progressivement ses vêtements pour finir dévêtu, voire nu.
 Sugar daddy : (anglicisme pour "papa gâteau") homme qui entretient des relations, souvent sexuelles, avec un ou une partenaire bien plus jeune, lequel reçoit en échange de l'argent ou des biens.
 Table dance : danse érotique réalisée à la table (ou sur) d'un établissement, par opposition à celle pratiquée sur scène. Dans certains pays, une table dance peut être une alternative à la lap dance, en raison de lois interdisant les danseuses exotiques de prendre contact avec les clients.
-Terekura : au Japon, service de rendez-vous par téléphone permettant de contourner l'interdiction de la prostitution.
-Prostitution militaire
-Bordel des camps de concentration : bordel visant à  inciter les prisonniers à collaborer. Mais ces établissements sont utilisés principalement par des kapos, c'est-à-dire des prisonniers, généralement de droit commun, utilisés dans l'encadrement des autres prisonniers.
+Terekura : au Japon, service de rendez-vous par téléphone permettant de contourner l'interdiction de la prostitution.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Industrie du sexe</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Prostitution</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Prostitution militaire</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bordel des camps de concentration : bordel visant à  inciter les prisonniers à collaborer. Mais ces établissements sont utilisés principalement par des kapos, c'est-à-dire des prisonniers, généralement de droit commun, utilisés dans l'encadrement des autres prisonniers.
 Bordel militaire allemand de la Seconde Guerre Mondiale
 Bordel militaire de campagne : appellation populaire d'un dispositif accompagnant plus ou moins officiellement  les unités de l'armée française durant le XXe siècle et permettant aux militaires d'avoir aisément des relations sexuelles avec des prostituées.
 Femmes de réconfort : euphémisme employé au Japon à propos des victimes, souvent mineures, du système d'esclavage sexuel de masse organisé à travers l'Asie par et pour l'armée et la marine impériales japonaises, en particulier durant la Seconde Guerre mondiale. L'emploi de ce terme est fortement contesté par les organisations qui exigent du gouvernement japonais des excuses formelles et des réparations, et préfèrent le terme non édulcoré d'« esclaves sexuelles ».</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Législation sur les crimes sexuels et droit relatif à la sexualité</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En Allemagne
-La législation sur les crimes sexuels est régie par les articles 174 à 184 du Code pénal allemand (Strafgesetzbuch).
-En France
-Dans la suite, conformément à la terminologie juridique, on appelle mineurs de quinze ans les enfants qui n'ont pas encore atteint leur quinzième anniversaire.
-Protection des mineurs
-Le fait, "commis par un majeur, d'organiser des réunions comportant des exhibitions ou des relations sexuelles auxquelles un mineur assiste ou participe ou d'assister en connaissance de cause à de telles réunions" : cinq ans d'emprisonnement et 75 000 euros d'amende[36].
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>En Allemagne</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La législation sur les crimes sexuels est régie par les articles 174 à 184 du Code pénal allemand (Strafgesetzbuch).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Législation sur les crimes sexuels et droit relatif à la sexualité</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la suite, conformément à la terminologie juridique, on appelle mineurs de quinze ans les enfants qui n'ont pas encore atteint leur quinzième anniversaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Législation sur les crimes sexuels et droit relatif à la sexualité</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Protection des mineurs</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Le fait, "commis par un majeur, d'organiser des réunions comportant des exhibitions ou des relations sexuelles auxquelles un mineur assiste ou participe ou d'assister en connaissance de cause à de telles réunions" : cinq ans d'emprisonnement et 75 000 euros d'amende.
 Sept ans d'emprisonnement et 100 000 euros d'amende lorsque le mineur a été mis en contact avec l'auteur des faits grâce à l'utilisation, pour la diffusion de messages à destination d'un public non déterminé, d'un réseau de communications électroniques ou que les faits sont commis dans les établissements d'enseignement ou d'éducation ou dans les locaux de l'administration, ainsi que, lors des entrées ou sorties des élèves ou du public ou dans un temps très voisin de celles-ci, aux abords de ces établissements ou locaux.
 Dix ans d'emprisonnement et 1 000 000 euros d'amende lorsque les faits ont été commis en bande organisée ou à l'encontre d'un mineur de quinze ans.
-Le fait "pour un majeur de faire des propositions sexuelles à un mineur de quinze ans ou à une personne se présentant comme telle en utilisant un moyen de communication électronique" : deux ans d'emprisonnement et de 30 000 euros d'amende[37].
+Le fait "pour un majeur de faire des propositions sexuelles à un mineur de quinze ans ou à une personne se présentant comme telle en utilisant un moyen de communication électronique" : deux ans d'emprisonnement et de 30 000 euros d'amende.
 Cinq ans d'emprisonnement et 75 000 euros d'amende lorsque les propositions ont été suivies d'une rencontre.
-Diffusion ou tentative de diffusion de pédopornographie. Le fait, "en vue de sa diffusion, de fixer, d'enregistrer ou de transmettre l'image ou la représentation d'un mineur lorsque cette image ou cette représentation présente un caractère pornographique" ou "d'offrir, de rendre disponible ou de diffuser une telle image ou représentation, par quelque moyen que ce soit, de l'importer ou de l'exporter, de la faire importer ou de la faire exporter" : cinq ans d'emprisonnement et 75 000 euros d'amende[38].
+Diffusion ou tentative de diffusion de pédopornographie. Le fait, "en vue de sa diffusion, de fixer, d'enregistrer ou de transmettre l'image ou la représentation d'un mineur lorsque cette image ou cette représentation présente un caractère pornographique" ou "d'offrir, de rendre disponible ou de diffuser une telle image ou représentation, par quelque moyen que ce soit, de l'importer ou de l'exporter, de la faire importer ou de la faire exporter" : cinq ans d'emprisonnement et 75 000 euros d'amende.
 À noter : "Lorsque l'image ou la représentation concerne un mineur de quinze ans, ces faits sont punis même s'ils n'ont pas été commis en vue de la diffusion de cette image ou représentation."
 Sept ans d'emprisonnement et à 100 000 euros d'amende lorsqu'il a été utilisé, pour la diffusion de l'image ou de la représentation du mineur à destination d'un public non déterminé, un réseau de communications électroniques.
 Dix ans d'emprisonnement et de 500 000 euros d'amende lorsqu'elles sont commises en bande organisée.
-Visionnage ou tentative de visionnage de pédopornographie. Le fait "de consulter habituellement ou en contrepartie d'un paiement un service de communication au public en ligne mettant à disposition une telle image ou représentation, d'acquérir ou de détenir une telle image ou représentation par quelque moyen que ce soit" : deux ans d'emprisonnement et 30 000 euros d'amende[38].
+Visionnage ou tentative de visionnage de pédopornographie. Le fait "de consulter habituellement ou en contrepartie d'un paiement un service de communication au public en ligne mettant à disposition une telle image ou représentation, d'acquérir ou de détenir une telle image ou représentation par quelque moyen que ce soit" : deux ans d'emprisonnement et 30 000 euros d'amende.
 Dix ans d'emprisonnement et 500 000 euros d'amende lorsqu'elles sont commises en bande organisée.
-Le fait "soit de fabriquer, de transporter, de diffuser par quelque moyen que ce soit et quel qu'en soit le support un message à caractère [...] pornographique [...], soit de faire commerce d'un tel message, lorsque ce message est susceptible d'être vu ou perçu par un mineur" : trois ans d'emprisonnement et 75 000 euros d'amende[39].
-Le fait "de faire à un mineur des offres ou des promesses ou de lui proposer des dons, présents ou avantages quelconques, ou d'user contre lui de pressions ou de contraintes de toute nature, afin qu'il se soumette à une mutilation sexuelle" ou "d'inciter directement autrui [...] à commettre une mutilation sexuelle sur la personne d'un mineur", "lorsque cette mutilation n'a pas été réalisée" : cinq ans d'emprisonnement et 75 000 € d'amende[40].
-Atteinte sexuelle sur mineur de quinze ans : sept ans d'emprisonnement et 100 000 € d'amende[41].
-Dix ans d'emprisonnement et 150 000 euros d'amende :  1° Lorsqu'elle est commise par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  2° Lorsqu'elle est commise par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  3° Lorsqu'elle est commise par plusieurs personnes agissant en qualité d'auteur ou de complice ;  4° Lorsque le mineur a été mis en contact avec l'auteur des faits grâce à l'utilisation, pour la diffusion de messages à destination d'un public non déterminé, d'un réseau de communication électronique ;  5° Lorsqu'elle est commise par une personne agissant en état d'ivresse manifeste ou sous l'emprise manifeste de produits stupéfiants[42].
-Les atteintes sexuelles sans violence, contrainte, menace ni surprise sur un mineur âgé de plus de quinze ans sont punies de trois ans d'emprisonnement et de 45 000 € d'amende :  1° Lorsqu'elles sont commises par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  2° Lorsqu'elles sont commises par une personne qui abuse de l'autorité que lui confèrent ses fonctions[43].
-Agressions sexuelles
-Agressions sexuelles : "toute atteinte sexuelle commise avec violence, contrainte, menace ou surprise"[44].
-Viol : "tout acte de pénétration sexuelle, de quelque nature qu'il soit, commis sur la personne d'autrui ou sur la personne de l'auteur par violence, contrainte, menace ou surprise" : quinze ans de réclusion criminelle[45].
-Vingt ans de réclusion criminelle :  1° Lorsqu'il a entraîné une mutilation ou une infirmité permanente ;  2° Lorsqu'il est commis sur un mineur de quinze ans ;  3° Lorsqu'il est commis sur une personne dont la particulière vulnérabilité, due à son âge, à une maladie, à une infirmité, à une déficience physique ou psychique ou à un état de grossesse, est apparente ou connue de l'auteur ;  3° bis Lorsqu'il est commis sur une personne dont la particulière vulnérabilité ou dépendance résultant de la précarité de sa situation économique ou sociale est apparente ou connue de l'auteur ;  4° Lorsqu'il est commis par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  5° Lorsqu'il est commis par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  6° Lorsqu'il est commis par plusieurs personnes agissant en qualité d'auteur ou de complice ;  7° Lorsqu'il est commis avec usage ou menace d'une arme ;  8° Lorsque la victime a été mise en contact avec l'auteur des faits grâce à l'utilisation, pour la diffusion de messages à destination d'un public non déterminé, d'un réseau de communication électronique ;  10° Lorsqu'il est commis en concours avec un ou plusieurs autres viols commis sur d'autres victimes ;  11° Lorsqu'il est commis par le conjoint ou le concubin de la victime ou le partenaire lié à la victime par un pacte civil de solidarité ;  12° Lorsqu'il est commis par une personne agissant en état d'ivresse manifeste ou sous l'emprise manifeste de produits stupéfiants ;  13° Lorsqu'il est commis, dans l'exercice de cette activité, sur une personne qui se livre à la prostitution, y compris de façon occasionnelle ;  14° Lorsqu'un mineur était présent au moment des faits et y a assisté ;  15° Lorsqu'une substance a été administrée à la victime, à son insu, afin d'altérer son discernement ou le contrôle de ses actes[46].
-Trente ans de réclusion criminelle lorsqu'il a entrainé la mort de la victime[47].
-Réclusion criminelle à perpétuité lorsqu'il est précédé, accompagné ou suivi de tortures ou d'actes de barbarie[48].
+Le fait "soit de fabriquer, de transporter, de diffuser par quelque moyen que ce soit et quel qu'en soit le support un message à caractère [...] pornographique [...], soit de faire commerce d'un tel message, lorsque ce message est susceptible d'être vu ou perçu par un mineur" : trois ans d'emprisonnement et 75 000 euros d'amende.
+Le fait "de faire à un mineur des offres ou des promesses ou de lui proposer des dons, présents ou avantages quelconques, ou d'user contre lui de pressions ou de contraintes de toute nature, afin qu'il se soumette à une mutilation sexuelle" ou "d'inciter directement autrui [...] à commettre une mutilation sexuelle sur la personne d'un mineur", "lorsque cette mutilation n'a pas été réalisée" : cinq ans d'emprisonnement et 75 000 € d'amende.
+Atteinte sexuelle sur mineur de quinze ans : sept ans d'emprisonnement et 100 000 € d'amende.
+Dix ans d'emprisonnement et 150 000 euros d'amende :  1° Lorsqu'elle est commise par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  2° Lorsqu'elle est commise par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  3° Lorsqu'elle est commise par plusieurs personnes agissant en qualité d'auteur ou de complice ;  4° Lorsque le mineur a été mis en contact avec l'auteur des faits grâce à l'utilisation, pour la diffusion de messages à destination d'un public non déterminé, d'un réseau de communication électronique ;  5° Lorsqu'elle est commise par une personne agissant en état d'ivresse manifeste ou sous l'emprise manifeste de produits stupéfiants.
+Les atteintes sexuelles sans violence, contrainte, menace ni surprise sur un mineur âgé de plus de quinze ans sont punies de trois ans d'emprisonnement et de 45 000 € d'amende :  1° Lorsqu'elles sont commises par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  2° Lorsqu'elles sont commises par une personne qui abuse de l'autorité que lui confèrent ses fonctions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Législation sur les crimes sexuels et droit relatif à la sexualité</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Agressions sexuelles</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Agressions sexuelles : "toute atteinte sexuelle commise avec violence, contrainte, menace ou surprise".
+Viol : "tout acte de pénétration sexuelle, de quelque nature qu'il soit, commis sur la personne d'autrui ou sur la personne de l'auteur par violence, contrainte, menace ou surprise" : quinze ans de réclusion criminelle.
+Vingt ans de réclusion criminelle :  1° Lorsqu'il a entraîné une mutilation ou une infirmité permanente ;  2° Lorsqu'il est commis sur un mineur de quinze ans ;  3° Lorsqu'il est commis sur une personne dont la particulière vulnérabilité, due à son âge, à une maladie, à une infirmité, à une déficience physique ou psychique ou à un état de grossesse, est apparente ou connue de l'auteur ;  3° bis Lorsqu'il est commis sur une personne dont la particulière vulnérabilité ou dépendance résultant de la précarité de sa situation économique ou sociale est apparente ou connue de l'auteur ;  4° Lorsqu'il est commis par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  5° Lorsqu'il est commis par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  6° Lorsqu'il est commis par plusieurs personnes agissant en qualité d'auteur ou de complice ;  7° Lorsqu'il est commis avec usage ou menace d'une arme ;  8° Lorsque la victime a été mise en contact avec l'auteur des faits grâce à l'utilisation, pour la diffusion de messages à destination d'un public non déterminé, d'un réseau de communication électronique ;  10° Lorsqu'il est commis en concours avec un ou plusieurs autres viols commis sur d'autres victimes ;  11° Lorsqu'il est commis par le conjoint ou le concubin de la victime ou le partenaire lié à la victime par un pacte civil de solidarité ;  12° Lorsqu'il est commis par une personne agissant en état d'ivresse manifeste ou sous l'emprise manifeste de produits stupéfiants ;  13° Lorsqu'il est commis, dans l'exercice de cette activité, sur une personne qui se livre à la prostitution, y compris de façon occasionnelle ;  14° Lorsqu'un mineur était présent au moment des faits et y a assisté ;  15° Lorsqu'une substance a été administrée à la victime, à son insu, afin d'altérer son discernement ou le contrôle de ses actes.
+Trente ans de réclusion criminelle lorsqu'il a entrainé la mort de la victime.
+Réclusion criminelle à perpétuité lorsqu'il est précédé, accompagné ou suivi de tortures ou d'actes de barbarie.
 Autres agressions sexuelles (art. 222-27 CP) : cinq ans d'emprisonnement et 75 000 euros d'amende.
 Sept ans d'emprisonnement et 100 000 euros d'amende (art. 222-28 CP) :  1° Lorsqu'elle a entraîné une blessure, une lésion ou une incapacité totale de travail supérieure à huit jours ;  2° Lorsqu'elle est commise par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  3° Lorsqu'elle est commise par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  4° Lorsqu'elle est commise par plusieurs personnes agissant en qualité d'auteur ou de complice ;  5° Lorsqu'elle est commise avec usage ou menace d'une arme ;  6° Lorsque la victime a été mise en contact avec l'auteur des faits grâce à l'utilisation, pour la diffusion de messages à destination d'un public non déterminé, d'un réseau de communication électronique ;  7° Lorsqu'elle est commise par le conjoint ou le concubin de la victime ou le partenaire lié à la victime par un pacte civil de solidarité ;  8° Lorsqu'elle est commise par une personne agissant en état d'ivresse manifeste ou sous l'emprise manifeste de produits stupéfiants ;  9° Lorsqu'elle est commise, dans l'exercice de cette activité, sur une personne qui se livre à la prostitution, y compris de façon occasionnelle ;  10° Lorsqu'un mineur était présent au moment des faits et y a assisté ;  11° Lorsqu'une substance a été administrée à la victime, à son insu, afin d'altérer son discernement ou le contrôle de ses actes.
 Sept ans d'emprisonnement et 100 000 euros d'amende lorsqu'elles sont imposées à une personne dont la particulière vulnérabilité due à son âge, à une maladie, à une infirmité, à une déficience physique ou psychique ou à un état de grossesse ou résultant de la précarité de sa situation économique ou sociale est apparente ou connue de son auteur (art. 222-29 CP).
 Autres agressions sexuelles sur mineur de quinze ans (art. 222-29-1 CP) : dix ans d'emprisonnement et 150 000 € d'amende.
-Dix ans d'emprisonnement et 150 000 euros d'amende (art. 222-30 CP) :  1° Lorsqu'elle a entraîné une blessure ou une lésion ;  2° Lorsqu'elle est commise par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  3° Lorsqu'elle est commise par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  4° Lorsqu'elle est commise par plusieurs personnes agissant en qualité d'auteur ou de complice ;  5° Lorsqu'elle est commise avec usage ou menace d'une arme ;  7° Lorsqu'elle est commise par une personne agissant en état d'ivresse manifeste ou sous l'emprise manifeste de produits stupéfiants ;  8° Lorsqu'une substance a été administrée à la victime, à son insu, afin d'altérer son discernement ou le contrôle de ses actes.
-Prostitution
-Proxénétisme (art. 225-5 CP) : sept ans d'emprisonnement et 150 000 euros d'amende.
+Dix ans d'emprisonnement et 150 000 euros d'amende (art. 222-30 CP) :  1° Lorsqu'elle a entraîné une blessure ou une lésion ;  2° Lorsqu'elle est commise par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait ;  3° Lorsqu'elle est commise par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  4° Lorsqu'elle est commise par plusieurs personnes agissant en qualité d'auteur ou de complice ;  5° Lorsqu'elle est commise avec usage ou menace d'une arme ;  7° Lorsqu'elle est commise par une personne agissant en état d'ivresse manifeste ou sous l'emprise manifeste de produits stupéfiants ;  8° Lorsqu'une substance a été administrée à la victime, à son insu, afin d'altérer son discernement ou le contrôle de ses actes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Législation sur les crimes sexuels et droit relatif à la sexualité</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Prostitution</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Proxénétisme (art. 225-5 CP) : sept ans d'emprisonnement et 150 000 euros d'amende.
 Est assimilé au proxénétisme et puni des peines prévues par l'article 225-5 le fait, par quiconque, de quelque manière que ce soit (art. 225-6 CP) :  1° De faire office d'intermédiaire entre deux personnes dont l'une se livre à la prostitution et l'autre exploite ou rémunère la prostitution d'autrui ;  2° De faciliter à un proxénète la justification de ressources fictives ;  3° De ne pouvoir justifier de ressources correspondant à son train de vie tout en vivant avec une personne qui se livre habituellement à la prostitution ou tout en étant en relations habituelles avec une ou plusieurs personnes se livrant à la prostitution ;  4° D'entraver l'action de prévention, de contrôle, d'assistance ou de rééducation entreprise par les organismes qualifiés à l'égard de personnes en danger de prostitution ou se livrant à la prostitution.
 Dix ans d'emprisonnement et 1 500 000 euros d'amende lorsqu'il est commis (art. 225-7 CP) :  1° A l'égard d'un mineur ;  2° A l'égard d'une personne dont la particulière vulnérabilité, due à son âge, à une maladie, à une infirmité, à une déficience physique ou psychique ou à un état de grossesse, est apparente ou connue de son auteur ;  3° A l'égard de plusieurs personnes ;  4° A l'égard d'une personne qui a été incitée à se livrer à la prostitution soit hors du territoire de la République, soit à son arrivée sur le territoire de la République ;  5° Par un ascendant légitime, naturel ou adoptif de la personne qui se prostitue ou par une personne qui a autorité sur elle ou abuse de l'autorité que lui confèrent ses fonctions ;  6° Par une personne appelée à participer, de par ses fonctions, à la lutte contre la prostitution, à la protection de la santé ou au maintien de l'ordre public ;  7° Par une personne porteuse d'une arme ;  8° Avec l'emploi de la contrainte, de violences ou de manœuvres dolosives ;  9° Par plusieurs personnes agissant en qualité d'auteur ou de complice, sans qu'elles constituent une bande organisée ;  10° Grâce à l'utilisation, pour la diffusion de messages à destination d'un public non déterminé, d'un réseau de communication électronique.
 Quinze ans de réclusion criminelle et 3 000 000 euros d'amende lorsqu'il est commis à l'égard d'un mineur de quinze ans (art. 225-7-1 CP).
@@ -868,44 +1293,84 @@
 Dix ans d'emprisonnement et 750 000 euros d'amende le fait, par quiconque, agissant directement ou par personne interposée (art. 225-10 CP) :  1° De détenir, gérer, exploiter, diriger, faire fonctionner, financer ou contribuer à financer un établissement de prostitution ;  2° Détenant, gérant, exploitant, dirigeant, faisant fonctionner, finançant ou contribuant à financer un établissement quelconque ouvert au public ou utilisé par le public, d'accepter ou de tolérer habituellement qu'une ou plusieurs personnes se livrent à la prostitution à l'intérieur de l'établissement ou de ses annexes ou y recherchent des clients en vue de la prostitution ;  3° De vendre ou de tenir à la disposition d'une ou de plusieurs personnes des locaux ou emplacements non utilisés par le public, en sachant qu'elles s'y livreront à la prostitution ;  4° De vendre, de louer ou de tenir à la disposition, de quelque manière que ce soit, d'une ou plusieurs personnes, des véhicules de toute nature en sachant qu'elles s'y livreront à la prostitution.
 Recours à la prostitution (art. 225-12-1 CP) : 3 750 euros d'amende.
 Cinq ans d'emprisonnement et 75 000 euros d'amende (art. 225-12-2 CP) :  1° Lorsque l'infraction est commise de façon habituelle ou à l'égard de plusieurs personnes ;  2° Lorsque la personne a été mise en contact avec l'auteur des faits grâce à l'utilisation, pour la diffusion de messages à destination d'un public non déterminé, d'un réseau de communication ;  3° Lorsque les faits sont commis par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  4° Lorsque l'auteur des faits a délibérément ou par imprudence mis la vie de la personne en danger ou a commis contre elle des violences.
-Sept ans d'emprisonnement et 100 000 euros d'amende lorsqu'il s'agit d'un mineur de quinze ans (art. 225-12-2 CP).
-Divers
-Exhibition sexuelle (art. 222-32 CP) : un an d'emprisonnement et 15 000 euros d'amende.
+Sept ans d'emprisonnement et 100 000 euros d'amende lorsqu'il s'agit d'un mineur de quinze ans (art. 225-12-2 CP).</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Législation sur les crimes sexuels et droit relatif à la sexualité</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>En France</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Exhibition sexuelle (art. 222-32 CP) : un an d'emprisonnement et 15 000 euros d'amende.
 Harcèlement sexuel (art. 222-33 CP) : deux ans d'emprisonnement et 30 000 € d'amende.
 Trois ans d'emprisonnement et 45 000 € d'amende lorsque les faits sont commis :  1° Par une personne qui abuse de l'autorité que lui confèrent ses fonctions ;  2° Sur un mineur de quinze ans ;  3° Sur une personne dont la particulière vulnérabilité, due à son âge, à une maladie, à une infirmité, à une déficience physique ou psychique ou à un état de grossesse, est apparente ou connue de leur auteur ;  4° Sur une personne dont la particulière vulnérabilité ou dépendance résultant de la précarité de sa situation économique ou sociale est apparente ou connue de leur auteur ;  5° Par plusieurs personnes agissant en qualité d'auteur ou de complice ;  6° Par l'utilisation d'un service de communication au public en ligne ou par le biais d'un support numérique ou électronique ;  7° Alors qu'un mineur était présent et y a assisté ;  8° Par un ascendant ou par toute autre personne ayant sur la victime une autorité de droit ou de fait.</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Glossaire_de_la_sexualité</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Glossaire_de_la_sexualit%C3%A9</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Sexologie et travail social</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
         <is>
           <t>Addiction sexuelle : perte de contrôle de la sexualité et poursuite du comportement pathologique lié à l'acte sexuel malgré la connaissance de ses conséquences négatives.
 Éducation sexuelle : travail pédagogique, notamment destiné aux enfants et adolescents, qui traite des questions d’amour, de sentiments, de reproduction, de développement psychosexuel et physique, de corps masculin et féminin, d’érotisme, de consentement, de respect mutuel et de toutes les formes de sexualité, de désir sexuel, de la masturbation et à la vie adulte.
 Éthique sexuelle : branche de l'éthique appliquée qui traite de la sexualité humaine et de sa déontologie.
-Études de genre / Gender Studies : champ de recherche pluridisciplinaire qui étudie les rapports sociaux entre les sexes. Le genre, considéré comme une construction sociale, est analysé dans « tous les domaines des sciences humaines et sociales : histoire, sociologie, anthropologie, psychologie et psychanalyse, économie, sciences politiques, géographie… »[49]
+Études de genre / Gender Studies : champ de recherche pluridisciplinaire qui étudie les rapports sociaux entre les sexes. Le genre, considéré comme une construction sociale, est analysé dans « tous les domaines des sciences humaines et sociales : histoire, sociologie, anthropologie, psychologie et psychanalyse, économie, sciences politiques, géographie… »
 Hygiène sexuelle : enseignement des aspects sanitaires de la sexualité humaine comme la prévention des maladies sexuellement transmissibles et l’hygiène des organes génitaux masculins et féminins (hygiène intime).
 Hypersexualisation / sexualisation précoce : tendance observée depuis la révolution sexuelle des années 1960, à une commercialisation et médiatisation de la sexualité qui affecte le développement des enfants et adolescents.
 Libération sexuelle / révolution sexuelle : changements substantiels du comportement sexuel et des mœurs sexuels intervenus en Occident durant les années 1950 et au début des années 1960. Ce mouvement est essentiellement marqué par l'émancipation sexuelle progressive des femmes, par l'affirmation de l'égalité des sexes et la reconnaissance (dépénalisation/démédicalisation) des orientations sexuelles et identités de genre atypiques.
